--- a/Scrum notes.xlsx
+++ b/Scrum notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenoid/Desktop/Software Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4072AB7-202E-2D4B-B79B-1C3E7C714DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A4F32-8E8C-8243-981D-6AD3B841E437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18420" windowHeight="13560" xr2:uid="{B3EB5B61-ED54-0747-B7B1-C0B751397733}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="13560" xr2:uid="{B3EB5B61-ED54-0747-B7B1-C0B751397733}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Ethan</t>
   </si>
@@ -132,13 +132,34 @@
   </si>
   <si>
     <t>Fix the screen scaling issue</t>
+  </si>
+  <si>
+    <t>Scaling issue fixed</t>
+  </si>
+  <si>
+    <t>Submitted zip version of the program</t>
+  </si>
+  <si>
+    <t>Game flow completely ruined</t>
+  </si>
+  <si>
+    <t>Fix game flow</t>
+  </si>
+  <si>
+    <t>.zip file is too large to upload on github</t>
+  </si>
+  <si>
+    <t>Fix game logic</t>
+  </si>
+  <si>
+    <t>Submit full game .zip file on github</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +189,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -337,6 +364,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,8 +374,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0074C1-3E7D-654F-A172-340E87BB1482}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,18 +706,19 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
@@ -699,20 +732,21 @@
       <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
@@ -723,11 +757,12 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -743,8 +778,11 @@
       <c r="I4" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="9" t="s">
@@ -754,8 +792,11 @@
         <v>13</v>
       </c>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="5"/>
       <c r="C6" s="10" t="s">
@@ -763,8 +804,9 @@
       </c>
       <c r="D6" s="6"/>
       <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -778,15 +820,19 @@
       <c r="I7" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -800,21 +846,25 @@
       <c r="I9" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="10"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -830,8 +880,11 @@
       <c r="I11" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="9" t="s">
@@ -841,8 +894,9 @@
         <v>14</v>
       </c>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
@@ -850,8 +904,9 @@
       </c>
       <c r="D13" s="6"/>
       <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -865,8 +920,11 @@
       <c r="I14" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
@@ -874,15 +932,19 @@
       </c>
       <c r="D15" s="4"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="5"/>
       <c r="C16" s="10"/>
       <c r="D16" s="6"/>
       <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>28</v>
@@ -896,24 +958,31 @@
       <c r="I17" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" s="10"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="6"/>
       <c r="I18" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="J18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>